--- a/public_html/Randomdata.xlsx
+++ b/public_html/Randomdata.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Site 1</t>
   </si>
@@ -97,13 +96,30 @@
   </si>
   <si>
     <t>Actual Rev</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Hours/day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,15 +145,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,25 +439,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -441,7 +464,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -466,414 +489,434 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(5,100)</f>
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <f ca="1">RANDBETWEEN(10,15)</f>
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="C3" s="4">
+        <f ca="1">RANDBETWEEN(10,15)/100</f>
+        <v>0.15</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(6,15)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <f ca="1">B3*$C$1</f>
-        <v>8.7378999999999998</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F17" ca="1" si="0">C3*B3/100</f>
-        <v>8.26</v>
-      </c>
-      <c r="G3">
-        <f ca="1">E3*D3</f>
-        <v>113.59269999999999</v>
-      </c>
-      <c r="H3">
+        <f ca="1">B3*$C$1*$K$4</f>
+        <v>119356.75200000001</v>
+      </c>
+      <c r="F3" s="3">
+        <f ca="1">B3*$C3*$K$4</f>
+        <v>120887.99999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G17" ca="1" si="0">E3*D3</f>
+        <v>1790351.28</v>
+      </c>
+      <c r="H3" s="2">
         <f ca="1">F3*D3</f>
-        <v>107.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1813319.9999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B17" ca="1" si="1">RANDBETWEEN(5,100)</f>
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C17" ca="1" si="2">RANDBETWEEN(10,15)</f>
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C17" ca="1" si="2">RANDBETWEEN(10,15)/100</f>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D17" ca="1" si="3">RANDBETWEEN(6,15)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E17" ca="1" si="4">B4*$C$1</f>
-        <v>7.1088000000000005</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.72</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G17" ca="1" si="5">E4*D4</f>
-        <v>49.761600000000001</v>
-      </c>
-      <c r="H4">
+        <f t="shared" ref="E4:E17" ca="1" si="4">B4*$C$1*$K$4</f>
+        <v>12973.560000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F17" ca="1" si="5">B4*$C4*$K$4</f>
+        <v>8760</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>142709.16</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H17" ca="1" si="6">F4*D4</f>
-        <v>47.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>96360</v>
+      </c>
+      <c r="K4">
+        <f>K3*K2</f>
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5544000000000002</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="5"/>
-        <v>24.880800000000001</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="6"/>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35028.612000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>33112.800000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>490400.56800000003</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>463579.20000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>12.292300000000001</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="5"/>
-        <v>110.6307</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="6"/>
-        <v>82.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>98599.056000000011</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>93206.400000000009</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1084589.6160000002</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1025270.4000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>13.032800000000002</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.44</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="5"/>
-        <v>182.45920000000001</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="6"/>
-        <v>160.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23352.407999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>18921.600000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>186819.264</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>151372.80000000002</v>
+      </c>
+      <c r="M7" s="5">
+        <f ca="1">RANDBETWEEN(0.1,0.15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>14.217600000000001</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.56</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="5"/>
-        <v>199.04640000000001</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="6"/>
-        <v>147.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>106383.19200000001</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>93381.6</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1170215.1120000002</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1027197.6000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6265000000000001</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="5"/>
-        <v>134.77100000000002</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="6"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>81733.428000000014</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>60706.799999999996</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>490400.56800000009</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>364240.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(6,15)</f>
+        <v>10</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1088000000000005</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="5"/>
-        <v>56.870400000000004</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="6"/>
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12973.560000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>8760</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>129735.6</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>12.588500000000002</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="5"/>
-        <v>113.29650000000001</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="6"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58381.020000000004</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>39420</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>642191.22000000009</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>433620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>11.403700000000001</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.24</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="5"/>
-        <v>68.422200000000004</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="6"/>
-        <v>55.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>107680.54800000001</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>109062</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1292166.5760000001</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1308744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2215000000000003</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.550500000000001</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="6"/>
-        <v>14.700000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>77841.360000000015</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>52560</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1011937.6800000002</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>683280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>14.661900000000001</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.89</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="5"/>
-        <v>161.2809</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="6"/>
-        <v>119.79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36325.968000000008</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>36792</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>217955.80800000005</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>220752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
@@ -881,52 +924,52 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9240000000000004</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="5"/>
-        <v>88.86</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="6"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32433.9</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>32850</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>486508.5</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>492750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>11.1075</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="5"/>
-        <v>111.075</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>70057.224000000002</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>56764.799999999996</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>980801.13600000006</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>794707.2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -935,49 +978,49 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2949000000000002</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="5"/>
-        <v>34.359200000000001</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="6"/>
-        <v>32.479999999999997</v>
+        <v>107680.54800000001</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>87249.599999999991</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1399847.1240000001</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1134244.7999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E18">
         <f ca="1">SUM(E3:E17)</f>
-        <v>137.88110000000003</v>
-      </c>
-      <c r="F18">
+        <v>980801.13599999994</v>
+      </c>
+      <c r="F18" s="3">
         <f ca="1">SUM(F3:F17)</f>
-        <v>111.19999999999999</v>
-      </c>
-      <c r="G18">
+        <v>852435.6</v>
+      </c>
+      <c r="G18" s="2">
         <f ca="1">SUM(G3:G17)</f>
-        <v>1464.8571000000002</v>
-      </c>
-      <c r="H18">
+        <v>11516629.211999999</v>
+      </c>
+      <c r="H18" s="2">
         <f ca="1">SUM(H3:H17)</f>
-        <v>1167.3</v>
+        <v>10097038.800000001</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/Randomdata.xlsx
+++ b/public_html/Randomdata.xlsx
@@ -110,7 +110,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -150,13 +150,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -442,18 +444,18 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -500,33 +502,33 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <f ca="1">RANDBETWEEN(5,100)</f>
-        <v>92</v>
-      </c>
-      <c r="C3" s="4">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7">
         <f ca="1">RANDBETWEEN(10,15)/100</f>
-        <v>0.15</v>
-      </c>
-      <c r="D3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="5">
         <f ca="1">RANDBETWEEN(6,15)</f>
-        <v>15</v>
-      </c>
-      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
         <f ca="1">B3*$C$1*$K$4</f>
-        <v>119356.75200000001</v>
-      </c>
-      <c r="F3" s="3">
+        <v>71354.58</v>
+      </c>
+      <c r="F3" s="6">
         <f ca="1">B3*$C3*$K$4</f>
-        <v>120887.99999999999</v>
-      </c>
-      <c r="G3" s="2">
+        <v>67452.000000000015</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G17" ca="1" si="0">E3*D3</f>
-        <v>1790351.28</v>
-      </c>
-      <c r="H3" s="2">
+        <v>570836.64</v>
+      </c>
+      <c r="H3" s="6">
         <f ca="1">F3*D3</f>
-        <v>1813319.9999999998</v>
+        <v>539616.00000000012</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -539,33 +541,33 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <f t="shared" ref="B4:B17" ca="1" si="1">RANDBETWEEN(5,100)</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7">
         <f t="shared" ref="C4:C17" ca="1" si="2">RANDBETWEEN(10,15)/100</f>
-        <v>0.1</v>
-      </c>
-      <c r="D4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D17" ca="1" si="3">RANDBETWEEN(6,15)</f>
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E17" ca="1" si="4">B4*$C$1*$K$4</f>
-        <v>12973.560000000001</v>
-      </c>
-      <c r="F4" s="3">
+        <v>24649.764000000003</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F17" ca="1" si="5">B4*$C4*$K$4</f>
-        <v>8760</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>142709.16</v>
-      </c>
-      <c r="H4" s="2">
+        <v>23301.600000000002</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>271147.40400000004</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H17" ca="1" si="6">F4*D4</f>
-        <v>96360</v>
+        <v>256317.60000000003</v>
       </c>
       <c r="K4">
         <f>K3*K2</f>
@@ -576,101 +578,101 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="4"/>
-        <v>35028.612000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>33112.800000000003</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>490400.56800000003</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>463579.20000000007</v>
+      <c r="B5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>72651.936000000016</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>73584</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>435911.6160000001</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>441504</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C6" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="4"/>
-        <v>98599.056000000011</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>93206.400000000009</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1084589.6160000002</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1025270.4000000001</v>
+      <c r="D6" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>84328.14</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>79716.000000000015</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>674625.12</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>637728.00000000012</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="4"/>
-        <v>23352.407999999999</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>18921.600000000002</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>186819.264</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>151372.80000000002</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="B7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>108977.90400000001</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>73584</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1634668.56</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>1103760</v>
+      </c>
+      <c r="M7" s="4">
         <f ca="1">RANDBETWEEN(0.1,0.15)</f>
         <v>1</v>
       </c>
@@ -679,348 +681,348 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.13</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="4"/>
-        <v>106383.19200000001</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>93381.6</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1170215.1120000002</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1027197.6000000001</v>
+      <c r="B8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>120654.10800000001</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>114055.20000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1689157.5120000001</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>1596772.8000000003</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>0.11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="4"/>
-        <v>81733.428000000014</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>60706.799999999996</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>490400.56800000009</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>364240.8</v>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>16865.628000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>12526.8</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>101193.76800000001</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>75160.799999999988</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="D10" s="5">
         <f ca="1">RANDBETWEEN(6,15)</f>
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="4"/>
-        <v>12973.560000000001</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8760</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>129735.6</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>87600</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>70057.224000000002</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>61495.200000000004</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>840686.68800000008</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>737942.4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="3"/>
+      <c r="B11" s="5">
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="4"/>
-        <v>58381.020000000004</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>39420</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>642191.22000000009</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>433620</v>
+      <c r="C11" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>14270.916000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>13490.4</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>185521.90800000002</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>175375.19999999998</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="4"/>
-        <v>107680.54800000001</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>109062</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1292166.5760000001</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1308744</v>
+      <c r="D12" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>32433.9</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>32850</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>291905.10000000003</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>295650</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="4"/>
-        <v>77841.360000000015</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>52560</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1011937.6800000002</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>683280</v>
+      <c r="B13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>89517.564000000013</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>66488.399999999994</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1342763.4600000002</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>997325.99999999988</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="4"/>
-        <v>36325.968000000008</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>36792</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>217955.80800000005</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>220752</v>
+      <c r="D14" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>29839.188000000002</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>30221.999999999996</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>417748.63200000004</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>423107.99999999994</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="4"/>
-        <v>32433.9</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>32850</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>486508.5</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>492750</v>
+      <c r="B15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>10378.848</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>7008</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>145303.872</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>98112</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="4"/>
+      <c r="B16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>7784.1360000000004</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>7358.4000000000005</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ca="1" si="0"/>
         <v>70057.224000000002</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>56764.799999999996</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>980801.13600000006</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>794707.2</v>
+      <c r="H16" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>66225.600000000006</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="4"/>
-        <v>107680.54800000001</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>87249.599999999991</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1399847.1240000001</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1134244.7999999998</v>
+      <c r="B17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>89517.564000000013</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>90666</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1253245.8960000002</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>1269324</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E18">
         <f ca="1">SUM(E3:E17)</f>
-        <v>980801.13599999994</v>
+        <v>843281.40000000014</v>
       </c>
       <c r="F18" s="3">
         <f ca="1">SUM(F3:F17)</f>
-        <v>852435.6</v>
+        <v>753798.00000000012</v>
       </c>
       <c r="G18" s="2">
         <f ca="1">SUM(G3:G17)</f>
-        <v>11516629.211999999</v>
+        <v>9924773.3999999985</v>
       </c>
       <c r="H18" s="2">
         <f ca="1">SUM(H3:H17)</f>
-        <v>10097038.800000001</v>
+        <v>8713922.4000000004</v>
       </c>
     </row>
   </sheetData>
